--- a/report_4.xlsx
+++ b/report_4.xlsx
@@ -38,22 +38,22 @@
     <t>Quantité</t>
   </si>
   <si>
-    <t>shopping with Cassatt</t>
+    <t>shopping with Raphael</t>
   </si>
   <si>
-    <t>1964-02-14</t>
+    <t>1953-06-13</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>Aerodynamic Cotton Hat</t>
+    <t>Mediocre Wool Table</t>
   </si>
   <si>
-    <t>Kale</t>
+    <t>English Spinach</t>
   </si>
   <si>
-    <t>5.0</t>
+    <t>3.0</t>
   </si>
 </sst>
 </file>
